--- a/Project/CRMRetention/장바구니 이탈 데이터 논문 정리.xlsx
+++ b/Project/CRMRetention/장바구니 이탈 데이터 논문 정리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\Project\CRMRetention\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6BC3E0-4EB3-4384-B3FF-93EE75007E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AE3256-E28C-4B76-8AAD-9CFDD504C715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DC803C73-3657-4497-B716-AEF458EB72FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{DC803C73-3657-4497-B716-AEF458EB72FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1059,23 +1059,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00CB6CB-FB3B-4B53-825F-35549978CA65}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="43" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="43" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="101.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="88.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.9140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="117.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="78.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="103.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="78.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="103.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1">
@@ -1113,7 +1115,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="226.2">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="221">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1148,7 +1150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="10" customFormat="1" ht="174">
+    <row r="3" spans="1:11" s="10" customFormat="1" ht="136">
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
@@ -1180,7 +1182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="191.4">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="136">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -1212,7 +1214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="174">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="170">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1245,7 +1247,7 @@
       </c>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="295.8">
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="289">
       <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
@@ -1280,7 +1282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="382.8">
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="374">
       <c r="A7" s="13" t="s">
         <v>53</v>
       </c>
